--- a/biology/Zoologie/Bongo_(animal)/Bongo_(animal).xlsx
+++ b/biology/Zoologie/Bongo_(animal)/Bongo_(animal).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tragelaphus eurycerus
 Le bongo (Tragelaphus eurycerus) est une espèce de mammifères ruminants de la famille des Bovidés vivant en Afrique centrale. C’est une grande antilope des forêts tropicales. L'Union internationale pour la conservation de la nature le classe comme quasi menacé.
@@ -514,13 +526,15 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Morphologie
-La femelle pèse entre 210 et 235 kg, le mâle a un poids compris entre 240 et 405 kg. Les deux sexes possèdent des cornes en spirale qui mesurent entre 75 et 99 cm[2].
+          <t>Morphologie</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle pèse entre 210 et 235 kg, le mâle a un poids compris entre 240 et 405 kg. Les deux sexes possèdent des cornes en spirale qui mesurent entre 75 et 99 cm.
 La longueur de son corps atteint les 210 cm et sa hauteur au garrot les 125 cm.
 Le bongo peut courir jusqu'à 47 km/h en vitesse de pointe ; il court à peu près à la même vitesse que le Nyala et le Grand Koudou, auxquels il est apparenté.
-Physiologie
-Il atteint sa maturité sexuelle à 20 mois. Sa gestation est de 9 mois et demi et une portée peut compter 1 ou exceptionnellement 2 petits.
-Sa longévité est en moyenne de 17 ans en liberté et de 19 ans en captivité.
 </t>
         </is>
       </c>
@@ -546,12 +560,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Relation avec l'homme</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le bongo est un animal craintif qui fréquente peu l'homme, mais il s'habitue rapidement aux nouveaux environnements, et il n'est pas rare de trouver des bongos en captivité. 
+          <t>Physiologie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il atteint sa maturité sexuelle à 20 mois. Sa gestation est de 9 mois et demi et une portée peut compter 1 ou exceptionnellement 2 petits.
+Sa longévité est en moyenne de 17 ans en liberté et de 19 ans en captivité.
 </t>
         </is>
       </c>
@@ -577,10 +598,45 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Relation avec l'homme</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le bongo est un animal craintif qui fréquente peu l'homme, mais il s'habitue rapidement aux nouveaux environnements, et il n'est pas rare de trouver des bongos en captivité. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bongo_(animal)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bongo_(animal)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">On distingue deux sous-espèces :
 Tragelaphus eurycerus eurycerus (quasi menacée) vivant en Afrique équatoriale ; et Tragelaphus eurycerus isaaci (en danger critique d’extinction), restreint à une zone montagneuse du Kenya.
